--- a/Master Session Runs.xlsx
+++ b/Master Session Runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwilcox\OneDrive - OpSec Security Group\Desktop\gosrc\pima-diabetes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4D21CD-A8F7-43CF-A9AC-942BABDD39F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A48EDC6-2428-4ADD-BA32-E74A624AB84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Remove Incomplete (+ K-Fold)" sheetId="12" r:id="rId1"/>
@@ -233,6 +233,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -458,7 +461,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E46721F-B463-4071-A5A3-4DF4E340084E}">
   <dimension ref="A1:W161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="H167" sqref="H167"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="M161" sqref="M161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6169,7 +6174,7 @@
   <dimension ref="A1:W161"/>
   <sheetViews>
     <sheetView topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+      <selection activeCell="M161" sqref="M161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11595,7 +11600,7 @@
   <dimension ref="A1:M161"/>
   <sheetViews>
     <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+      <selection activeCell="M161" sqref="M161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16963,7 +16968,7 @@
   <dimension ref="A1:W161"/>
   <sheetViews>
     <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+      <selection activeCell="M161" sqref="M161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22389,7 +22394,7 @@
   <dimension ref="A1:W161"/>
   <sheetViews>
     <sheetView topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+      <selection activeCell="M161" sqref="M161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27816,7 +27821,7 @@
   <dimension ref="A1:W161"/>
   <sheetViews>
     <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+      <selection activeCell="M161" sqref="M161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33240,10 +33245,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26CB054B-8773-4270-BA70-4B9A41A815E7}">
-  <dimension ref="A1:W161"/>
+  <dimension ref="A1:W175"/>
   <sheetViews>
-    <sheetView topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="H175" sqref="H175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38656,6 +38661,9 @@
         <v>-4.1317176655571955E-2</v>
       </c>
     </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H175" s="26"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:K1"/>
@@ -38670,7 +38678,7 @@
   <dimension ref="A1:W161"/>
   <sheetViews>
     <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+      <selection activeCell="M161" sqref="M161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44096,7 +44104,7 @@
   <dimension ref="A1:W161"/>
   <sheetViews>
     <sheetView topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+      <selection activeCell="M161" sqref="M161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -49525,7 +49533,7 @@
   <dimension ref="A1:W161"/>
   <sheetViews>
     <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+      <selection activeCell="M161" sqref="M161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54952,7 +54960,7 @@
   <dimension ref="A1:W161"/>
   <sheetViews>
     <sheetView topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+      <selection activeCell="M161" sqref="M161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -60378,7 +60386,7 @@
   <dimension ref="A1:W161"/>
   <sheetViews>
     <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+      <selection activeCell="M161" sqref="M161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -65804,7 +65812,7 @@
   <dimension ref="A1:W161"/>
   <sheetViews>
     <sheetView topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+      <selection activeCell="M161" sqref="M161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
